--- a/TestFiles/SH151-Custom-Cell-Format-Currency.xlsx
+++ b/TestFiles/SH151-Custom-Cell-Format-Currency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$£-809]* #,##0.00_-;[Red]\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ [$CHF-100C]\ * #,##0.00_ ;_ [$CHF-100C]\ * \-#,##0.00_ ;_ [$CHF-100C]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-[$£-809]* #,##0.00_-;[Red]\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -65,18 +66,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -361,12 +363,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>123.45</v>
       </c>
@@ -392,7 +394,7 @@
         <v>123.45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>-123.45</v>
       </c>
@@ -418,11 +420,11 @@
         <v>-123.45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="3">

--- a/TestFiles/SH151-Custom-Cell-Format-Currency.xlsx
+++ b/TestFiles/SH151-Custom-Cell-Format-Currency.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
